--- a/Container/Data/ProfilesMonster.xlsx
+++ b/Container/Data/ProfilesMonster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="55" activeTab="59"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="56" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,8 @@
     <sheet name="Große Fledermaus monster" sheetId="77" r:id="rId57"/>
     <sheet name="Mechanised monster" sheetId="80" r:id="rId58"/>
     <sheet name="flying monster" sheetId="82" r:id="rId59"/>
-    <sheet name="Desert rascal" sheetId="83" r:id="rId60"/>
+    <sheet name="Desert racals" sheetId="83" r:id="rId60"/>
+    <sheet name="Armor desert Racals" sheetId="84" r:id="rId61"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7777" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7905" uniqueCount="405">
   <si>
     <t>Lucksave</t>
   </si>
@@ -1451,9 +1452,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1515,7 +1518,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1534,6 +1537,7 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1552,6 +1556,7 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -1588,7 +1593,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7915,7 +7920,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -53846,8 +53850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -53886,7 +53890,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -53898,7 +53902,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>123</v>
@@ -53913,19 +53917,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>124</v>
@@ -53952,7 +53956,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>125</v>
@@ -53967,7 +53971,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>42</v>
@@ -53979,7 +53983,7 @@
         <v>109</v>
       </c>
       <c r="F5" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>126</v>
@@ -54006,7 +54010,7 @@
         <v>110</v>
       </c>
       <c r="F6" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>127</v>
@@ -54033,7 +54037,7 @@
         <v>111</v>
       </c>
       <c r="F7" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>128</v>
@@ -54101,7 +54105,7 @@
       </c>
       <c r="B10" s="5">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
@@ -54179,7 +54183,7 @@
       </c>
       <c r="B13" s="5">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
@@ -54235,7 +54239,7 @@
       </c>
       <c r="B15" s="5">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
@@ -54290,7 +54294,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -55396,8 +55400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -55468,7 +55472,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>46</v>
@@ -55614,8 +55618,8 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>174</v>
+      <c r="F8" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>129</v>
@@ -56170,6 +56174,785 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="5">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
+        <v>350</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5">
+        <v>350</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5">
+        <v>100</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="5">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" t="s">
+        <v>303</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
